--- a/biology/Zoologie/Gobio_occitaniae/Gobio_occitaniae.xlsx
+++ b/biology/Zoologie/Gobio_occitaniae/Gobio_occitaniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goujon occitan, Goujon du Languedoc
 Gobio occitaniae, le Goujon occitan ou Goujon du Languedoc, est une espèce de poissons d'eau douce actinoptérygiens de la famille des Gobionidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gobio occitaniae peut mesurer jusqu'à 127 mm, queue non comprise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gobio occitaniae peut mesurer jusqu'à 127 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson d'eau douce est originellement endémique du Sud-Ouest de la France. Il est présent dans le bassin de la Garonne et dans d'autres cours d'eau entre les Pyrénées et le Rhône[2],[3].
-Il a été introduit dans les bassins du Fluvià, du Llobregat, de la Muga et du Sègre, dans le Nord-Est de l'Espagne[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson d'eau douce est originellement endémique du Sud-Ouest de la France. Il est présent dans le bassin de la Garonne et dans d'autres cours d'eau entre les Pyrénées et le Rhône,.
+Il a été introduit dans les bassins du Fluvià, du Llobregat, de la Muga et du Sègre, dans le Nord-Est de l'Espagne.
 </t>
         </is>
       </c>
@@ -575,15 +591,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite en 2005 par les biologistes Maurice Kottelat et Henri Persat (d), en même temps que le Goujon d'Auvergne (Gobio alverniae)[5].
-Il a été distingué du Goujon commun (G. gobio), qui a une aire de répartition bien plus étendue[5].
-Étymologie et dénomination
-L'épithète spécifique occitaniae vient de l'Occitanie, région culturelle de la moitié-sud de la France et qui abrite l'aire de répartition de cette espèce[2],[5].
-Les noms vernaculaires attestés en français sont « Goujon occitan » et « Goujon du Languedoc »[3],[6].
-Publication originale
-(en + fr) Maurice Kottelat et Henri Persat, « The genus Gobio in France, with redescription of G. gobio and description of two new species (Teleostei: Cyprinidae) », Cybium, Paris, Société française d'ichtyologie, vol. 29, no 3,‎ juin 2005, p. 211-234 (DOI 10.26028/cybium/2005-293-001, lire en ligne [PDF], consulté le 2 mai 2024) (protologue).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 2005 par les biologistes Maurice Kottelat et Henri Persat (d), en même temps que le Goujon d'Auvergne (Gobio alverniae).
+Il a été distingué du Goujon commun (G. gobio), qui a une aire de répartition bien plus étendue.
+</t>
         </is>
       </c>
     </row>
@@ -608,13 +622,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie et dénomination</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique occitaniae vient de l'Occitanie, région culturelle de la moitié-sud de la France et qui abrite l'aire de répartition de cette espèce,.
+Les noms vernaculaires attestés en français sont « Goujon occitan » et « Goujon du Languedoc »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gobio_occitaniae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobio_occitaniae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en + fr) Maurice Kottelat et Henri Persat, « The genus Gobio in France, with redescription of G. gobio and description of two new species (Teleostei: Cyprinidae) », Cybium, Paris, Société française d'ichtyologie, vol. 29, no 3,‎ juin 2005, p. 211-234 (DOI 10.26028/cybium/2005-293-001, lire en ligne [PDF], consulté le 2 mai 2024) (protologue).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gobio_occitaniae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobio_occitaniae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Le Goujon occitan et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Goujon occitan est considéré comme une « espèce de préoccupation mineure » (LC) par la liste rouge de l'UICN[7].
-Il est considéré comme une « espèce de préoccupation mineure » par la liste rouge du Comité français de l'UICN dans sa version de 2019[8], où il était une « espèce à données insuffisantes » (DD) dans la version de 2009[9].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Goujon occitan est considéré comme une « espèce de préoccupation mineure » (LC) par la liste rouge de l'UICN.
+Il est considéré comme une « espèce de préoccupation mineure » par la liste rouge du Comité français de l'UICN dans sa version de 2019, où il était une « espèce à données insuffisantes » (DD) dans la version de 2009.
 </t>
         </is>
       </c>
